--- a/faclon-main/Complementary Components BOM.xlsx
+++ b/faclon-main/Complementary Components BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\KiCAD\Falcon\faclon-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89851604-2600-49CB-B279-073CA86370B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6E42D9-8993-4B6F-900B-5E41D5D137E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50151" yWindow="1859" windowWidth="14374" windowHeight="24925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Connector pugs</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Alternate tuning components</t>
+  </si>
+  <si>
+    <t>Camera FPC cables</t>
   </si>
 </sst>
 </file>
@@ -360,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -398,6 +401,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/faclon-main/Complementary Components BOM.xlsx
+++ b/faclon-main/Complementary Components BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\KiCAD\Falcon\faclon-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6E42D9-8993-4B6F-900B-5E41D5D137E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF73076A-215F-47E3-81F9-5868AB73C8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50151" yWindow="1859" windowWidth="14374" windowHeight="24925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Connector pugs</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Camera FPC cables</t>
+  </si>
+  <si>
+    <t>Parts for LED boards</t>
   </si>
 </sst>
 </file>
@@ -363,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -406,6 +409,11 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/faclon-main/Complementary Components BOM.xlsx
+++ b/faclon-main/Complementary Components BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\KiCAD\Falcon\faclon-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF73076A-215F-47E3-81F9-5868AB73C8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFFACF8-10FB-4686-AB26-0B828BF4C313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="50151" yWindow="1859" windowWidth="14374" windowHeight="24925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Connector pugs</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>Parts for LED boards</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/amphenol-icc-fci/F32R-1A7H1-11022/11564713</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/molex/0150180247/13904244</t>
   </si>
 </sst>
 </file>
@@ -366,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -414,7 +420,18 @@
         <v>7</v>
       </c>
     </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/faclon-main/Complementary Components BOM.xlsx
+++ b/faclon-main/Complementary Components BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\KiCAD\Falcon\faclon-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFFACF8-10FB-4686-AB26-0B828BF4C313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12A6D5A-DF57-48D8-A2EB-1BA34A53F4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50151" yWindow="1859" windowWidth="14374" windowHeight="24925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51866" yWindow="6284" windowWidth="12489" windowHeight="20382" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Connector pugs</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>https://www.digikey.ca/en/products/detail/molex/0150180247/13904244</t>
+  </si>
+  <si>
+    <t>Solder paste</t>
+  </si>
+  <si>
+    <t>And connector</t>
   </si>
 </sst>
 </file>
@@ -372,60 +378,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>

--- a/faclon-main/Complementary Components BOM.xlsx
+++ b/faclon-main/Complementary Components BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\KiCAD\Falcon\faclon-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12A6D5A-DF57-48D8-A2EB-1BA34A53F4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA219007-19D5-414E-A2E0-60F8A2FE9CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51866" yWindow="6284" windowWidth="12489" windowHeight="20382" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50151" yWindow="1859" windowWidth="14374" windowHeight="24925" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Connector pugs</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>And connector</t>
+  </si>
+  <si>
+    <t>Alternate MCU</t>
   </si>
 </sst>
 </file>
@@ -381,7 +384,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -434,6 +437,11 @@
         <v>10</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
